--- a/testData/LOT.xlsx
+++ b/testData/LOT.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
-    <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
-    <sheet name="Arkusz2" sheetId="2" r:id="rId2"/>
+    <sheet name="EU" sheetId="1" r:id="rId1"/>
+    <sheet name="US" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,13 +31,13 @@
     <t>JFK</t>
   </si>
   <si>
-    <t>12.06.2018</t>
-  </si>
-  <si>
-    <t>12.07.2018</t>
-  </si>
-  <si>
     <t>us/en/</t>
+  </si>
+  <si>
+    <t>fr/fr/</t>
+  </si>
+  <si>
+    <t>es/es/</t>
   </si>
 </sst>
 </file>
@@ -355,10 +355,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -367,85 +367,122 @@
     <col min="4" max="4" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D1">
+        <v>20</v>
+      </c>
+      <c r="E1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D2">
+        <v>11</v>
+      </c>
+      <c r="E2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>4</v>
+      <c r="D3">
+        <v>11</v>
+      </c>
+      <c r="E3">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>13</v>
+      </c>
+      <c r="E1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>11</v>
+      </c>
+      <c r="E2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>11</v>
+      </c>
+      <c r="E3">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/testData/LOT.xlsx
+++ b/testData/LOT.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="EU" sheetId="1" r:id="rId1"/>
     <sheet name="US" sheetId="2" r:id="rId2"/>
+    <sheet name="HU" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,10 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="6">
-  <si>
-    <t>pl/pl/</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="135">
   <si>
     <t>WAW</t>
   </si>
@@ -34,10 +32,400 @@
     <t>us/en/</t>
   </si>
   <si>
-    <t>fr/fr/</t>
-  </si>
-  <si>
-    <t>es/es/</t>
+    <t>dk/pl</t>
+  </si>
+  <si>
+    <t>eg/en</t>
+  </si>
+  <si>
+    <t>eg/pl</t>
+  </si>
+  <si>
+    <t>ee/ru</t>
+  </si>
+  <si>
+    <t>ee/en</t>
+  </si>
+  <si>
+    <t>fi/en</t>
+  </si>
+  <si>
+    <t>fr/fr</t>
+  </si>
+  <si>
+    <t>fr/en</t>
+  </si>
+  <si>
+    <t>fr/pl</t>
+  </si>
+  <si>
+    <t>gr/en</t>
+  </si>
+  <si>
+    <t>gr/pl</t>
+  </si>
+  <si>
+    <t>ge/en</t>
+  </si>
+  <si>
+    <t>es/es</t>
+  </si>
+  <si>
+    <t>es/en</t>
+  </si>
+  <si>
+    <t>es/pl</t>
+  </si>
+  <si>
+    <t>nl/en</t>
+  </si>
+  <si>
+    <t>nl/pl</t>
+  </si>
+  <si>
+    <t>il/en</t>
+  </si>
+  <si>
+    <t>jp/ja</t>
+  </si>
+  <si>
+    <t>jp/en</t>
+  </si>
+  <si>
+    <t>jp/pl</t>
+  </si>
+  <si>
+    <t>ca/en</t>
+  </si>
+  <si>
+    <t>ca/pl</t>
+  </si>
+  <si>
+    <t>kz/ru</t>
+  </si>
+  <si>
+    <t>kz/en</t>
+  </si>
+  <si>
+    <t>kz/pl</t>
+  </si>
+  <si>
+    <t>kr/ko</t>
+  </si>
+  <si>
+    <t>kr/en</t>
+  </si>
+  <si>
+    <t>kr/pl</t>
+  </si>
+  <si>
+    <t>lb/en</t>
+  </si>
+  <si>
+    <t>lb/pl</t>
+  </si>
+  <si>
+    <t>lt/en</t>
+  </si>
+  <si>
+    <t>lt/pl</t>
+  </si>
+  <si>
+    <t>lu/en</t>
+  </si>
+  <si>
+    <t>lu/pl</t>
+  </si>
+  <si>
+    <t>lv/en</t>
+  </si>
+  <si>
+    <t>lv/pl</t>
+  </si>
+  <si>
+    <t>mk/en</t>
+  </si>
+  <si>
+    <t>mk/pl</t>
+  </si>
+  <si>
+    <t>md/en</t>
+  </si>
+  <si>
+    <t>md/pl</t>
+  </si>
+  <si>
+    <t>de/de</t>
+  </si>
+  <si>
+    <t>de/en</t>
+  </si>
+  <si>
+    <t>de/pl</t>
+  </si>
+  <si>
+    <t>no/en</t>
+  </si>
+  <si>
+    <t>no/pl</t>
+  </si>
+  <si>
+    <t>pl/pl</t>
+  </si>
+  <si>
+    <t>pl/en</t>
+  </si>
+  <si>
+    <t>ru/ru</t>
+  </si>
+  <si>
+    <t>ru/en</t>
+  </si>
+  <si>
+    <t>ru/pl</t>
+  </si>
+  <si>
+    <t>ro/en</t>
+  </si>
+  <si>
+    <t>ro/pl</t>
+  </si>
+  <si>
+    <t>rs/en</t>
+  </si>
+  <si>
+    <t>sg/en</t>
+  </si>
+  <si>
+    <t>sg/pl</t>
+  </si>
+  <si>
+    <t>sk/en</t>
+  </si>
+  <si>
+    <t>sk/pl</t>
+  </si>
+  <si>
+    <t>si/en</t>
+  </si>
+  <si>
+    <t>si/pl</t>
+  </si>
+  <si>
+    <t>ch/it</t>
+  </si>
+  <si>
+    <t>ch/de</t>
+  </si>
+  <si>
+    <t>ch/en</t>
+  </si>
+  <si>
+    <t>ch/fr</t>
+  </si>
+  <si>
+    <t>ch/pl</t>
+  </si>
+  <si>
+    <t>se/en</t>
+  </si>
+  <si>
+    <t>se/pl</t>
+  </si>
+  <si>
+    <t>tr/en</t>
+  </si>
+  <si>
+    <t>tr/pl</t>
+  </si>
+  <si>
+    <t>ua/uk</t>
+  </si>
+  <si>
+    <t>ua/en</t>
+  </si>
+  <si>
+    <t>ua/pl</t>
+  </si>
+  <si>
+    <t>ua/ru</t>
+  </si>
+  <si>
+    <t>us/en</t>
+  </si>
+  <si>
+    <t>us/pl</t>
+  </si>
+  <si>
+    <t>hu/hu</t>
+  </si>
+  <si>
+    <t>hu/en</t>
+  </si>
+  <si>
+    <t>hu/pl</t>
+  </si>
+  <si>
+    <t>gb/en</t>
+  </si>
+  <si>
+    <t>gb/pl</t>
+  </si>
+  <si>
+    <t>it/it</t>
+  </si>
+  <si>
+    <t>it/pl</t>
+  </si>
+  <si>
+    <t>it/en</t>
+  </si>
+  <si>
+    <t>KRK</t>
+  </si>
+  <si>
+    <t>GDN</t>
+  </si>
+  <si>
+    <t>EWR</t>
+  </si>
+  <si>
+    <t>LAX</t>
+  </si>
+  <si>
+    <t>TLL</t>
+  </si>
+  <si>
+    <t>EVN</t>
+  </si>
+  <si>
+    <t>KTW</t>
+  </si>
+  <si>
+    <t>OTP</t>
+  </si>
+  <si>
+    <t>LWO</t>
+  </si>
+  <si>
+    <t>ICN</t>
+  </si>
+  <si>
+    <t>ORD</t>
+  </si>
+  <si>
+    <t>TLV</t>
+  </si>
+  <si>
+    <t>RZE</t>
+  </si>
+  <si>
+    <t>NRT</t>
+  </si>
+  <si>
+    <t>MAD</t>
+  </si>
+  <si>
+    <t>IEG</t>
+  </si>
+  <si>
+    <t>WRO</t>
+  </si>
+  <si>
+    <t>AMS</t>
+  </si>
+  <si>
+    <t>IST</t>
+  </si>
+  <si>
+    <t>VIE</t>
+  </si>
+  <si>
+    <t>BRU</t>
+  </si>
+  <si>
+    <t>TBS</t>
+  </si>
+  <si>
+    <t>KSC</t>
+  </si>
+  <si>
+    <t>MMX</t>
+  </si>
+  <si>
+    <t>LAS</t>
+  </si>
+  <si>
+    <t>LHR</t>
+  </si>
+  <si>
+    <t>MUC</t>
+  </si>
+  <si>
+    <t>LCA</t>
+  </si>
+  <si>
+    <t>PEK</t>
+  </si>
+  <si>
+    <t>FRA</t>
+  </si>
+  <si>
+    <t>SVO</t>
+  </si>
+  <si>
+    <t>PRG</t>
+  </si>
+  <si>
+    <t>YYZ</t>
+  </si>
+  <si>
+    <t>SIN</t>
+  </si>
+  <si>
+    <t>VCE</t>
+  </si>
+  <si>
+    <t>KBP</t>
+  </si>
+  <si>
+    <t>TIA</t>
+  </si>
+  <si>
+    <t>MSQ</t>
+  </si>
+  <si>
+    <t>POZ</t>
+  </si>
+  <si>
+    <t>LUZ</t>
+  </si>
+  <si>
+    <t>SOF</t>
+  </si>
+  <si>
+    <t>DBV</t>
+  </si>
+  <si>
+    <t>HEL</t>
+  </si>
+  <si>
+    <t>KIV</t>
+  </si>
+  <si>
+    <t>LED</t>
+  </si>
+  <si>
+    <t>BEG</t>
+  </si>
+  <si>
+    <t>LJU</t>
+  </si>
+  <si>
+    <t>CPH</t>
+  </si>
+  <si>
+    <t>TGD</t>
   </si>
 </sst>
 </file>
@@ -355,50 +743,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.88671875" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" customWidth="1"/>
     <col min="4" max="4" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>88</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E1">
-        <v>30</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>89</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>11</v>
+        <v>258</v>
       </c>
       <c r="E2">
-        <v>22</v>
+        <v>331</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -406,16 +794,1308 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D3">
+        <v>92</v>
+      </c>
+      <c r="E3">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>68</v>
+      </c>
+      <c r="E4">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>15</v>
+      </c>
+      <c r="E5">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D6">
+        <v>85</v>
+      </c>
+      <c r="E6">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D7">
+        <v>164</v>
+      </c>
+      <c r="E7">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8">
+        <v>34</v>
+      </c>
+      <c r="E8">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>17</v>
+      </c>
+      <c r="E9">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
+      <c r="E10">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>113</v>
+      </c>
+      <c r="E11">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>151</v>
+      </c>
+      <c r="E12">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13">
+        <v>99</v>
+      </c>
+      <c r="E13">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D14">
+        <v>24</v>
+      </c>
+      <c r="E14">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15">
+        <v>15</v>
+      </c>
+      <c r="E15">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>21</v>
+      </c>
+      <c r="E16">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17">
+        <v>148</v>
+      </c>
+      <c r="E17">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s">
+        <v>118</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" t="s">
+        <v>114</v>
+      </c>
+      <c r="D19">
+        <v>46</v>
+      </c>
+      <c r="E19">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>258</v>
+      </c>
+      <c r="E20">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>159</v>
+      </c>
+      <c r="E21">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22" t="s">
+        <v>119</v>
+      </c>
+      <c r="D22">
+        <v>53</v>
+      </c>
+      <c r="E22">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>83</v>
+      </c>
+      <c r="E23">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" t="s">
+        <v>99</v>
+      </c>
+      <c r="D24">
+        <v>29</v>
+      </c>
+      <c r="E24">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>6</v>
+      </c>
+      <c r="E25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>100</v>
+      </c>
+      <c r="D26">
+        <v>33</v>
+      </c>
+      <c r="E26">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>100</v>
+      </c>
+      <c r="C27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>123</v>
+      </c>
+      <c r="E27">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" t="s">
+        <v>121</v>
+      </c>
+      <c r="D28">
+        <v>262</v>
+      </c>
+      <c r="E28">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" t="s">
+        <v>122</v>
+      </c>
+      <c r="D29">
+        <v>227</v>
+      </c>
+      <c r="E29">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" t="s">
+        <v>123</v>
+      </c>
+      <c r="D30">
+        <v>21</v>
+      </c>
+      <c r="E30">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" t="s">
+        <v>87</v>
+      </c>
+      <c r="D31">
+        <v>69</v>
+      </c>
+      <c r="E31">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" t="s">
+        <v>87</v>
+      </c>
+      <c r="C32" t="s">
+        <v>86</v>
+      </c>
+      <c r="D32">
+        <v>55</v>
+      </c>
+      <c r="E32">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" t="s">
+        <v>87</v>
+      </c>
+      <c r="D33">
+        <v>119</v>
+      </c>
+      <c r="E33">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" t="s">
+        <v>94</v>
+      </c>
+      <c r="C34" t="s">
+        <v>86</v>
+      </c>
+      <c r="D34">
+        <v>39</v>
+      </c>
+      <c r="E34">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>55</v>
+      </c>
+      <c r="E35">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" t="s">
+        <v>124</v>
+      </c>
+      <c r="D36">
+        <v>112</v>
+      </c>
+      <c r="E36">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" t="s">
+        <v>86</v>
+      </c>
+      <c r="D37">
+        <v>124</v>
+      </c>
+      <c r="E37">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" t="s">
+        <v>87</v>
+      </c>
+      <c r="C38" t="s">
+        <v>125</v>
+      </c>
+      <c r="D38">
+        <v>43</v>
+      </c>
+      <c r="E38">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" t="s">
+        <v>86</v>
+      </c>
+      <c r="C39" t="s">
+        <v>125</v>
+      </c>
+      <c r="D39">
+        <v>95</v>
+      </c>
+      <c r="E39">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" t="s">
+        <v>101</v>
+      </c>
+      <c r="C40" t="s">
+        <v>87</v>
+      </c>
+      <c r="D40">
+        <v>79</v>
+      </c>
+      <c r="E40">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" t="s">
+        <v>102</v>
+      </c>
+      <c r="C41" t="s">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>119</v>
+      </c>
+      <c r="E41">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" t="s">
+        <v>102</v>
+      </c>
+      <c r="D42">
+        <v>34</v>
+      </c>
+      <c r="E42">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" t="s">
+        <v>99</v>
+      </c>
+      <c r="C43" t="s">
+        <v>86</v>
+      </c>
+      <c r="D43">
+        <v>162</v>
+      </c>
+      <c r="E43">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" t="s">
+        <v>99</v>
+      </c>
+      <c r="C44" t="s">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>45</v>
+      </c>
+      <c r="E44">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" t="s">
+        <v>103</v>
+      </c>
+      <c r="C45" t="s">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>28</v>
+      </c>
+      <c r="E45">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" t="s">
+        <v>98</v>
+      </c>
+      <c r="C46" t="s">
+        <v>96</v>
+      </c>
+      <c r="D46">
+        <v>23</v>
+      </c>
+      <c r="E46">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" t="s">
+        <v>104</v>
+      </c>
+      <c r="C47" t="s">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>16</v>
+      </c>
+      <c r="E47">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" t="s">
+        <v>0</v>
+      </c>
+      <c r="C48" t="s">
+        <v>104</v>
+      </c>
+      <c r="D48">
+        <v>18</v>
+      </c>
+      <c r="E48">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" t="s">
+        <v>0</v>
+      </c>
+      <c r="C49" t="s">
+        <v>91</v>
+      </c>
+      <c r="D49">
+        <v>111</v>
+      </c>
+      <c r="E49">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" t="s">
+        <v>105</v>
+      </c>
+      <c r="C50" t="s">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>13</v>
+      </c>
+      <c r="E50">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" t="s">
+        <v>0</v>
+      </c>
+      <c r="C51" t="s">
+        <v>126</v>
+      </c>
+      <c r="D51">
+        <v>98</v>
+      </c>
+      <c r="E51">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52" t="s">
+        <v>106</v>
+      </c>
+      <c r="C52" t="s">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>17</v>
+      </c>
+      <c r="E52">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" t="s">
+        <v>0</v>
+      </c>
+      <c r="C53" t="s">
+        <v>106</v>
+      </c>
+      <c r="D53">
+        <v>17</v>
+      </c>
+      <c r="E53">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C54" t="s">
+        <v>123</v>
+      </c>
+      <c r="D54">
+        <v>21</v>
+      </c>
+      <c r="E54">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55" t="s">
+        <v>0</v>
+      </c>
+      <c r="C55" t="s">
+        <v>127</v>
+      </c>
+      <c r="D55">
+        <v>57</v>
+      </c>
+      <c r="E55">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56" t="s">
+        <v>0</v>
+      </c>
+      <c r="C56" t="s">
+        <v>127</v>
+      </c>
+      <c r="D56">
+        <v>59</v>
+      </c>
+      <c r="E56">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57" t="s">
+        <v>0</v>
+      </c>
+      <c r="C57" t="s">
+        <v>128</v>
+      </c>
+      <c r="D57">
+        <v>318</v>
+      </c>
+      <c r="E57">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58" t="s">
+        <v>0</v>
+      </c>
+      <c r="C58" t="s">
+        <v>117</v>
+      </c>
+      <c r="D58">
+        <v>38</v>
+      </c>
+      <c r="E58">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59" t="s">
+        <v>89</v>
+      </c>
+      <c r="C59" t="s">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>325</v>
+      </c>
+      <c r="E59">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60" t="s">
+        <v>107</v>
+      </c>
+      <c r="C60" t="s">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>197</v>
+      </c>
+      <c r="E60">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61" t="s">
+        <v>107</v>
+      </c>
+      <c r="C61" t="s">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>53</v>
+      </c>
+      <c r="E61">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62" t="s">
+        <v>0</v>
+      </c>
+      <c r="C62" t="s">
+        <v>129</v>
+      </c>
+      <c r="D62">
+        <v>249</v>
+      </c>
+      <c r="E62">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63" t="s">
+        <v>96</v>
+      </c>
+      <c r="C63" t="s">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>32</v>
+      </c>
+      <c r="E63">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64" t="s">
+        <v>0</v>
+      </c>
+      <c r="C64" t="s">
+        <v>130</v>
+      </c>
+      <c r="D64">
+        <v>172</v>
+      </c>
+      <c r="E64">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>66</v>
+      </c>
+      <c r="B65" t="s">
+        <v>0</v>
+      </c>
+      <c r="C65" t="s">
+        <v>130</v>
+      </c>
+      <c r="D65">
+        <v>271</v>
+      </c>
+      <c r="E65">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>67</v>
+      </c>
+      <c r="B66" t="s">
+        <v>0</v>
+      </c>
+      <c r="C66" t="s">
+        <v>131</v>
+      </c>
+      <c r="D66">
+        <v>32</v>
+      </c>
+      <c r="E66">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>68</v>
+      </c>
+      <c r="B67" t="s">
+        <v>0</v>
+      </c>
+      <c r="C67" t="s">
+        <v>108</v>
+      </c>
+      <c r="D67">
+        <v>157</v>
+      </c>
+      <c r="E67">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>69</v>
+      </c>
+      <c r="B68" t="s">
+        <v>108</v>
+      </c>
+      <c r="C68" t="s">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>25</v>
+      </c>
+      <c r="E68">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>70</v>
+      </c>
+      <c r="B69" t="s">
+        <v>109</v>
+      </c>
+      <c r="C69" t="s">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>222</v>
+      </c>
+      <c r="E69">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>71</v>
+      </c>
+      <c r="B70" t="s">
+        <v>0</v>
+      </c>
+      <c r="C70" t="s">
+        <v>93</v>
+      </c>
+      <c r="D70">
+        <v>5</v>
+      </c>
+      <c r="E70">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>72</v>
+      </c>
+      <c r="B71" t="s">
+        <v>93</v>
+      </c>
+      <c r="C71" t="s">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>214</v>
+      </c>
+      <c r="E71">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>73</v>
+      </c>
+      <c r="B72" t="s">
+        <v>0</v>
+      </c>
+      <c r="C72" t="s">
+        <v>132</v>
+      </c>
+      <c r="D72">
+        <v>23</v>
+      </c>
+      <c r="E72">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>74</v>
+      </c>
+      <c r="B73" t="s">
+        <v>110</v>
+      </c>
+      <c r="C73" t="s">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>224</v>
+      </c>
+      <c r="E73">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>75</v>
+      </c>
+      <c r="B74" t="s">
+        <v>111</v>
+      </c>
+      <c r="C74" t="s">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>77</v>
+      </c>
+      <c r="E74">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>81</v>
+      </c>
+      <c r="B75" t="s">
+        <v>0</v>
+      </c>
+      <c r="C75" t="s">
+        <v>133</v>
+      </c>
+      <c r="D75">
+        <v>113</v>
+      </c>
+      <c r="E75">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>82</v>
+      </c>
+      <c r="B76" t="s">
+        <v>0</v>
+      </c>
+      <c r="C76" t="s">
+        <v>134</v>
+      </c>
+      <c r="D76">
+        <v>6</v>
+      </c>
+      <c r="E76">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>83</v>
+      </c>
+      <c r="B77" t="s">
+        <v>113</v>
+      </c>
+      <c r="C77" t="s">
+        <v>0</v>
+      </c>
+      <c r="D77">
         <v>2</v>
       </c>
-      <c r="D3">
-        <v>11</v>
-      </c>
-      <c r="E3">
-        <v>22</v>
+      <c r="E77">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>84</v>
+      </c>
+      <c r="B78" t="s">
+        <v>114</v>
+      </c>
+      <c r="C78" t="s">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>43</v>
+      </c>
+      <c r="E78">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>85</v>
+      </c>
+      <c r="B79" t="s">
+        <v>0</v>
+      </c>
+      <c r="C79" t="s">
+        <v>105</v>
+      </c>
+      <c r="D79">
+        <v>21</v>
+      </c>
+      <c r="E79">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -429,20 +2109,20 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>111</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1">
         <v>13</v>
@@ -453,36 +2133,102 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
         <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
       </c>
       <c r="D2">
         <v>11</v>
       </c>
       <c r="E2">
-        <v>22</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>11</v>
       </c>
       <c r="E3">
-        <v>22</v>
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <v>15</v>
+      </c>
+      <c r="E1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2">
+        <v>152</v>
+      </c>
+      <c r="E2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D3">
+        <v>98</v>
+      </c>
+      <c r="E3">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
